--- a/biology/Médecine/Alfred_Richet/Alfred_Richet.xlsx
+++ b/biology/Médecine/Alfred_Richet/Alfred_Richet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Didier Dominique Alfred Richet (Dijon, 16 mars 1816 – Carqueiranne, 30 décembre 1891[1]) est un anatomiste, prosecteur et chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Didier Dominique Alfred Richet (Dijon, 16 mars 1816 – Carqueiranne, 30 décembre 1891) est un anatomiste, prosecteur et chirurgien français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1835, il commence des études de médecine à Paris. Il devint aide-anatomiste en 1841, prosecteur en 1843 ; il fut de la même promotion que Claude Bernard et Antonin Jean Desormeaux et obtint son doctorat en médecine en 1844 avec sa thèse Études d'anatomie de physiologie et de pathologie pour servir à l'histoire des tumeurs blanches tout en devenant chirurgien du Bureau central des hôpitaux[2].
-Agrégé de la Faculté de médecine en 1847, il devint également chirurgien des hôpitaux de Paris (Lourcine, Saint-Antoine, Saint-Louis, Pitié-Salpétrière et Hôtel-Dieu). C'est dans ce dernier hôpital que Richet expérimentera l'anesthésie avec le chloroforme avec l'appareil de Jean-Louis-Prosper Duroy[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1835, il commence des études de médecine à Paris. Il devint aide-anatomiste en 1841, prosecteur en 1843 ; il fut de la même promotion que Claude Bernard et Antonin Jean Desormeaux et obtint son doctorat en médecine en 1844 avec sa thèse Études d'anatomie de physiologie et de pathologie pour servir à l'histoire des tumeurs blanches tout en devenant chirurgien du Bureau central des hôpitaux.
+Agrégé de la Faculté de médecine en 1847, il devint également chirurgien des hôpitaux de Paris (Lourcine, Saint-Antoine, Saint-Louis, Pitié-Salpétrière et Hôtel-Dieu). C'est dans ce dernier hôpital que Richet expérimentera l'anesthésie avec le chloroforme avec l'appareil de Jean-Louis-Prosper Duroy.
 En 1853, il est nommé membre de la Société de chirurgie dont il devient le président en 1864. C'est cette même année qu'il intègre le corps professoral de la faculté en tant que professeur de pathologie chirurgical, puis, de clinique chirurgicale à partir de 1871. Il garde sa chaire de clinique jusqu'à sa retraite en 1889. Parallèlement, en 1865, il devient membre de l'Académie nationale de médecine qu'il préside en 1879, et, membre de l'Académie des sciences, section médecine en 1883.
 Il meurt à 75 ans, le 30 décembre 1891.
 Il est le père du physiologiste français Charles Richet (1850-1935), lauréat du prix Nobel de médecine en 1913 pour la description de l'anaphylaxie, le grand père du médecin Charles Richet, déporté résistant, et l'arrière grand-père de Gabriel Richet.
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de la Légion d'honneur en 1872[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur en 1872.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1847 : De l'emploi du froid et de la chaleur dans le traitement des affections chirurgicales
 1850 : Des opérations applicables aux ankyloses
